--- a/MarchMadness2019.xlsx
+++ b/MarchMadness2019.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="76">
   <si>
     <t>Randall</t>
   </si>
@@ -322,7 +322,24 @@
     <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="10">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C6500"/>
@@ -681,9 +698,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -805,7 +820,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="2">
-        <f t="shared" ref="D3:F33" si="1">IF(C3=B3,1,0)</f>
+        <f t="shared" ref="D3:D33" si="1">IF(C3=B3,1,0)</f>
         <v>0</v>
       </c>
       <c r="E3" t="s">
@@ -1203,42 +1218,45 @@
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Farleigh Dickinson</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="s">
         <v>9</v>
       </c>
       <c r="F10" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" t="s">
         <v>9</v>
       </c>
       <c r="H10" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="s">
         <v>9</v>
       </c>
       <c r="J10" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" t="s">
         <v>9</v>
       </c>
       <c r="L10" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2" t="s">
@@ -1259,14 +1277,17 @@
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Syracuse</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="s">
         <v>34</v>
@@ -1280,7 +1301,7 @@
       </c>
       <c r="H11" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="s">
         <v>34</v>
@@ -1294,7 +1315,7 @@
       </c>
       <c r="L11" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2" t="s">
@@ -1315,7 +1336,10 @@
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Marquette</v>
+      </c>
+      <c r="B12" t="s">
+        <v>35</v>
       </c>
       <c r="C12" t="s">
         <v>11</v>
@@ -1329,7 +1353,7 @@
       </c>
       <c r="F12" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="s">
         <v>11</v>
@@ -1350,7 +1374,7 @@
       </c>
       <c r="L12" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2" t="s">
@@ -1542,14 +1566,17 @@
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Nevada</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
       </c>
       <c r="C16" t="s">
         <v>15</v>
       </c>
       <c r="D16" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="s">
         <v>37</v>
@@ -1570,7 +1597,7 @@
       </c>
       <c r="J16" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" t="s">
         <v>37</v>
@@ -1598,42 +1625,45 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Montana</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
       </c>
       <c r="C17" t="s">
         <v>16</v>
       </c>
       <c r="D17" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="s">
         <v>16</v>
       </c>
       <c r="F17" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="s">
         <v>16</v>
       </c>
       <c r="H17" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="s">
         <v>16</v>
       </c>
       <c r="J17" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" t="s">
         <v>16</v>
       </c>
       <c r="L17" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2" t="s">
@@ -1878,42 +1908,45 @@
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Saint Marys</v>
+      </c>
+      <c r="B22" t="s">
+        <v>21</v>
       </c>
       <c r="C22" t="s">
         <v>21</v>
       </c>
       <c r="D22" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="s">
         <v>21</v>
       </c>
       <c r="F22" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" t="s">
         <v>21</v>
       </c>
       <c r="H22" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="s">
         <v>21</v>
       </c>
       <c r="J22" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22" t="s">
         <v>21</v>
       </c>
       <c r="L22" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2" t="s">
@@ -1934,42 +1967,45 @@
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Old Dominion</v>
+      </c>
+      <c r="B23" t="s">
+        <v>22</v>
       </c>
       <c r="C23" t="s">
         <v>22</v>
       </c>
       <c r="D23" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" t="s">
         <v>22</v>
       </c>
       <c r="F23" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" t="s">
         <v>22</v>
       </c>
       <c r="H23" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="s">
         <v>22</v>
       </c>
       <c r="J23" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23" t="s">
         <v>22</v>
       </c>
       <c r="L23" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2" t="s">
@@ -2273,42 +2309,45 @@
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Northeastern</v>
+      </c>
+      <c r="B29" t="s">
+        <v>28</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
       </c>
       <c r="D29" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" t="s">
         <v>28</v>
       </c>
       <c r="F29" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" t="s">
         <v>28</v>
       </c>
       <c r="H29" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" t="s">
         <v>28</v>
       </c>
       <c r="J29" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K29" t="s">
         <v>28</v>
       </c>
       <c r="L29" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2" t="s">
@@ -2441,7 +2480,10 @@
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Seton Hall</v>
+      </c>
+      <c r="B32" t="s">
+        <v>39</v>
       </c>
       <c r="C32" t="s">
         <v>31</v>
@@ -2455,28 +2497,28 @@
       </c>
       <c r="F32" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G32" t="s">
         <v>39</v>
       </c>
       <c r="H32" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" t="s">
         <v>39</v>
       </c>
       <c r="J32" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K32" t="s">
         <v>39</v>
       </c>
       <c r="L32" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2" t="s">
@@ -2497,42 +2539,45 @@
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Abilene Christ</v>
+      </c>
+      <c r="B33" t="s">
+        <v>32</v>
       </c>
       <c r="C33" t="s">
         <v>32</v>
       </c>
       <c r="D33" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" t="s">
         <v>32</v>
       </c>
       <c r="F33" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G33" t="s">
         <v>32</v>
       </c>
       <c r="H33" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" t="s">
         <v>32</v>
       </c>
       <c r="J33" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K33" t="s">
         <v>32</v>
       </c>
       <c r="L33" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2" t="s">
@@ -2556,23 +2601,23 @@
       </c>
       <c r="C34" s="2">
         <f>SUM(D2:D33)</f>
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E34" s="2">
         <f>SUM(F2:F33)</f>
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G34" s="2">
         <f>SUM(H2:H33)</f>
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="I34" s="2">
         <f>SUM(J2:J33)</f>
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="K34" s="2">
         <f>SUM(L2:L33)</f>
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="O34" s="2"/>
       <c r="Q34" s="2"/>
@@ -2582,13 +2627,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:C33 E2:E33 G2:G33 I2:I33 K2:K33">
-    <cfRule type="uniqueValues" dxfId="7" priority="7"/>
+    <cfRule type="uniqueValues" dxfId="4" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="S1">
-    <cfRule type="uniqueValues" dxfId="6" priority="6"/>
+    <cfRule type="uniqueValues" dxfId="3" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:Q33">
-    <cfRule type="colorScale" priority="5">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2600,7 +2645,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O2:Q33">
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2608,7 +2653,7 @@
         <color rgb="FFFCFCFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="2">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2618,7 +2663,7 @@
         <color theme="0"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="3">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2628,7 +2673,7 @@
         <color rgb="FF00B0F0"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="4">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2639,6 +2684,11 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B33">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>$U$1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2647,9 +2697,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2995,7 +3043,7 @@
         <v>11</v>
       </c>
       <c r="D7" s="2">
-        <f>IF(C7=B7,1,0)</f>
+        <f t="shared" ref="D7:D16" si="8">IF(C7=B7,1,0)</f>
         <v>0</v>
       </c>
       <c r="E7" t="s">
@@ -3051,7 +3099,7 @@
         <v>14</v>
       </c>
       <c r="D8" s="2">
-        <f>IF(C8=B8,1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E8" t="s">
@@ -3107,7 +3155,7 @@
         <v>16</v>
       </c>
       <c r="D9" s="2">
-        <f>IF(C9=B9,1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E9" t="s">
@@ -3163,7 +3211,7 @@
         <v>17</v>
       </c>
       <c r="D10" s="2">
-        <f>IF(C10=B10,1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E10" t="s">
@@ -3219,7 +3267,7 @@
         <v>20</v>
       </c>
       <c r="D11" s="2">
-        <f>IF(C11=B11,1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E11" t="s">
@@ -3275,7 +3323,7 @@
         <v>21</v>
       </c>
       <c r="D12" s="2">
-        <f>IF(C12=B12,1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E12" t="s">
@@ -3331,7 +3379,7 @@
         <v>24</v>
       </c>
       <c r="D13" s="2">
-        <f>IF(C13=B13,1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E13" t="s">
@@ -3387,7 +3435,7 @@
         <v>25</v>
       </c>
       <c r="D14" s="2">
-        <f>IF(C14=B14,1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E14" t="s">
@@ -3443,7 +3491,7 @@
         <v>28</v>
       </c>
       <c r="D15" s="2">
-        <f>IF(C15=B15,1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E15" t="s">
@@ -3499,7 +3547,7 @@
         <v>30</v>
       </c>
       <c r="D16" s="2">
-        <f>IF(C16=B16,1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E16" t="s">
@@ -3905,7 +3953,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="S1">
-    <cfRule type="uniqueValues" dxfId="5" priority="7"/>
+    <cfRule type="uniqueValues" dxfId="9" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:Q33">
     <cfRule type="colorScale" priority="6">
@@ -3967,9 +4015,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4921,7 +4967,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="S1">
-    <cfRule type="uniqueValues" dxfId="3" priority="6"/>
+    <cfRule type="uniqueValues" dxfId="8" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:Q33">
     <cfRule type="colorScale" priority="5">
@@ -4983,9 +5029,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5785,7 +5829,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="S1">
-    <cfRule type="uniqueValues" dxfId="2" priority="6"/>
+    <cfRule type="uniqueValues" dxfId="7" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:Q33">
     <cfRule type="colorScale" priority="5">
@@ -5847,9 +5891,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6569,7 +6611,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="S1">
-    <cfRule type="uniqueValues" dxfId="1" priority="6"/>
+    <cfRule type="uniqueValues" dxfId="6" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:Q33">
     <cfRule type="colorScale" priority="5">
@@ -6631,9 +6673,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7313,7 +7353,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="S1">
-    <cfRule type="uniqueValues" dxfId="0" priority="6"/>
+    <cfRule type="uniqueValues" dxfId="5" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:Q33">
     <cfRule type="colorScale" priority="5">

--- a/MarchMadness2019.xlsx
+++ b/MarchMadness2019.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14025" windowHeight="5700"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="7545" tabRatio="687"/>
   </bookViews>
   <sheets>
     <sheet name="Round 1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="76">
   <si>
     <t>Randall</t>
   </si>
@@ -322,14 +322,7 @@
     <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="8">
     <dxf>
       <font>
         <color rgb="FF9C6500"/>
@@ -381,22 +374,9 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -698,12 +678,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.85546875" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
@@ -1510,42 +1490,45 @@
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Northern Ky</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
       </c>
       <c r="C15" t="s">
         <v>14</v>
       </c>
       <c r="D15" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="s">
         <v>14</v>
       </c>
       <c r="F15" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" t="s">
         <v>14</v>
       </c>
       <c r="H15" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="s">
         <v>14</v>
       </c>
       <c r="J15" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" t="s">
         <v>14</v>
       </c>
       <c r="L15" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2" t="s">
@@ -1684,42 +1667,45 @@
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Gardner-Webb</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
       </c>
       <c r="C18" t="s">
         <v>17</v>
       </c>
       <c r="D18" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="s">
         <v>17</v>
       </c>
       <c r="F18" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="s">
         <v>17</v>
       </c>
       <c r="H18" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="s">
         <v>17</v>
       </c>
       <c r="J18" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" t="s">
         <v>17</v>
       </c>
       <c r="L18" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2" t="s">
@@ -1740,28 +1726,31 @@
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Ole Miss</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
       </c>
       <c r="C19" t="s">
         <v>18</v>
       </c>
       <c r="D19" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="s">
         <v>18</v>
       </c>
       <c r="F19" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" t="s">
         <v>18</v>
       </c>
       <c r="H19" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="s">
         <v>47</v>
@@ -1775,7 +1764,7 @@
       </c>
       <c r="L19" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2" t="s">
@@ -1852,7 +1841,10 @@
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>K St</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="C21" t="s">
         <v>20</v>
@@ -2026,7 +2018,10 @@
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Cincy</v>
+      </c>
+      <c r="B24" t="s">
+        <v>68</v>
       </c>
       <c r="C24" t="s">
         <v>23</v>
@@ -2082,42 +2077,45 @@
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Colgate</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
       </c>
       <c r="C25" t="s">
         <v>24</v>
       </c>
       <c r="D25" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" t="s">
         <v>24</v>
       </c>
       <c r="F25" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" t="s">
         <v>24</v>
       </c>
       <c r="H25" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="s">
         <v>24</v>
       </c>
       <c r="J25" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K25" t="s">
         <v>24</v>
       </c>
       <c r="L25" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2" t="s">
@@ -2601,23 +2599,23 @@
       </c>
       <c r="C34" s="2">
         <f>SUM(D2:D33)</f>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E34" s="2">
         <f>SUM(F2:F33)</f>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G34" s="2">
         <f>SUM(H2:H33)</f>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I34" s="2">
         <f>SUM(J2:J33)</f>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K34" s="2">
         <f>SUM(L2:L33)</f>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="O34" s="2"/>
       <c r="Q34" s="2"/>
@@ -2627,13 +2625,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:C33 E2:E33 G2:G33 I2:I33 K2:K33">
-    <cfRule type="uniqueValues" dxfId="4" priority="8"/>
+    <cfRule type="uniqueValues" dxfId="7" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="S1">
-    <cfRule type="uniqueValues" dxfId="3" priority="7"/>
+    <cfRule type="uniqueValues" dxfId="6" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:Q33">
-    <cfRule type="colorScale" priority="6">
+    <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2645,7 +2643,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O2:Q33">
-    <cfRule type="colorScale" priority="2">
+    <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2653,7 +2651,7 @@
         <color rgb="FFFCFCFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="3">
+    <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2663,7 +2661,7 @@
         <color theme="0"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="4">
+    <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2673,7 +2671,7 @@
         <color rgb="FF00B0F0"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="5">
+    <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2684,9 +2682,61 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B33">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+  <conditionalFormatting sqref="B2:B20 B22:B33">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>$U$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B21">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B21">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFC000"/>
+        <color theme="0"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FF00B0F0"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3953,7 +4003,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="S1">
-    <cfRule type="uniqueValues" dxfId="9" priority="7"/>
+    <cfRule type="uniqueValues" dxfId="4" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:Q33">
     <cfRule type="colorScale" priority="6">
@@ -4967,7 +5017,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="S1">
-    <cfRule type="uniqueValues" dxfId="8" priority="6"/>
+    <cfRule type="uniqueValues" dxfId="3" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:Q33">
     <cfRule type="colorScale" priority="5">
@@ -5829,7 +5879,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="S1">
-    <cfRule type="uniqueValues" dxfId="7" priority="6"/>
+    <cfRule type="uniqueValues" dxfId="2" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:Q33">
     <cfRule type="colorScale" priority="5">
@@ -6611,7 +6661,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="S1">
-    <cfRule type="uniqueValues" dxfId="6" priority="6"/>
+    <cfRule type="uniqueValues" dxfId="1" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:Q33">
     <cfRule type="colorScale" priority="5">
@@ -7353,7 +7403,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="S1">
-    <cfRule type="uniqueValues" dxfId="5" priority="6"/>
+    <cfRule type="uniqueValues" dxfId="0" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:Q33">
     <cfRule type="colorScale" priority="5">

--- a/MarchMadness2019.xlsx
+++ b/MarchMadness2019.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rmadsen\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prosk\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4B716FB-D0AE-4D3B-B897-9E565A8AFD19}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="7545" tabRatio="687"/>
+    <workbookView xWindow="2985" yWindow="2985" windowWidth="21600" windowHeight="11385" tabRatio="687" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Round 1" sheetId="1" r:id="rId1"/>
@@ -20,17 +21,24 @@
     <sheet name="Champion" sheetId="8" r:id="rId6"/>
     <sheet name="Teams" sheetId="3" state="hidden" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="76">
   <si>
     <t>Randall</t>
   </si>
@@ -263,7 +271,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -675,10 +683,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -738,42 +748,45 @@
     <row r="2" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>IF(B2="","",IF(B2=N2,P2,N2))</f>
-        <v/>
+        <v>NC Central</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="2">
         <f>IF(C2=B2,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="s">
         <v>1</v>
       </c>
       <c r="F2" s="2">
         <f>IF(E2=B2,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" t="s">
         <v>1</v>
       </c>
       <c r="H2" s="2">
         <f>IF(G2=B2,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="s">
         <v>1</v>
       </c>
       <c r="J2" s="2">
         <f>IF(I2=B2,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2" t="s">
         <v>1</v>
       </c>
       <c r="L2" s="2">
         <f>IF(K2=B2,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2" t="s">
@@ -794,7 +807,10 @@
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f t="shared" ref="A3:A33" si="0">IF(B3="","",IF(B3=N3,P3,N3))</f>
-        <v/>
+        <v>VCU</v>
+      </c>
+      <c r="B3" t="s">
+        <v>44</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -815,21 +831,21 @@
       </c>
       <c r="H3" s="2">
         <f t="shared" ref="H3:H33" si="3">IF(G3=B3,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="s">
         <v>44</v>
       </c>
       <c r="J3" s="2">
         <f t="shared" ref="J3:J33" si="4">IF(I3=B3,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" t="s">
         <v>44</v>
       </c>
       <c r="L3" s="2">
         <f t="shared" ref="L3:L33" si="5">IF(K3=B3,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2" t="s">
@@ -850,7 +866,10 @@
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Mississippi St</v>
+      </c>
+      <c r="B4" t="s">
+        <v>45</v>
       </c>
       <c r="C4" t="s">
         <v>3</v>
@@ -864,14 +883,14 @@
       </c>
       <c r="F4" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" t="s">
         <v>45</v>
       </c>
       <c r="H4" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="s">
         <v>3</v>
@@ -906,42 +925,45 @@
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Saint Louis</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="s">
         <v>4</v>
       </c>
       <c r="F5" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="s">
         <v>4</v>
       </c>
       <c r="H5" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="s">
         <v>4</v>
       </c>
       <c r="J5" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" t="s">
         <v>4</v>
       </c>
       <c r="L5" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2" t="s">
@@ -1434,7 +1456,10 @@
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>ASU</v>
+      </c>
+      <c r="B14" t="s">
+        <v>36</v>
       </c>
       <c r="C14" t="s">
         <v>13</v>
@@ -1448,28 +1473,28 @@
       </c>
       <c r="F14" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="s">
         <v>36</v>
       </c>
       <c r="H14" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="s">
         <v>36</v>
       </c>
       <c r="J14" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" t="s">
         <v>36</v>
       </c>
       <c r="L14" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2" t="s">
@@ -1785,7 +1810,10 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Wisc</v>
+      </c>
+      <c r="B20" t="s">
+        <v>38</v>
       </c>
       <c r="C20" t="s">
         <v>19</v>
@@ -1799,14 +1827,14 @@
       </c>
       <c r="F20" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="s">
         <v>38</v>
       </c>
       <c r="H20" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="s">
         <v>19</v>
@@ -1820,7 +1848,7 @@
       </c>
       <c r="L20" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2" t="s">
@@ -2136,42 +2164,45 @@
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Iona</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
       </c>
       <c r="C26" t="s">
         <v>25</v>
       </c>
       <c r="D26" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" t="s">
         <v>25</v>
       </c>
       <c r="F26" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" t="s">
         <v>25</v>
       </c>
       <c r="H26" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" t="s">
         <v>25</v>
       </c>
       <c r="J26" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26" t="s">
         <v>25</v>
       </c>
       <c r="L26" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2" t="s">
@@ -2192,21 +2223,24 @@
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Utah St</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
       </c>
       <c r="C27" t="s">
         <v>26</v>
       </c>
       <c r="D27" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" t="s">
         <v>26</v>
       </c>
       <c r="F27" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" t="s">
         <v>46</v>
@@ -2366,7 +2400,10 @@
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>I St</v>
+      </c>
+      <c r="B30" t="s">
+        <v>72</v>
       </c>
       <c r="C30" t="s">
         <v>29</v>
@@ -2422,42 +2459,45 @@
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Georgia St</v>
+      </c>
+      <c r="B31" t="s">
+        <v>30</v>
       </c>
       <c r="C31" t="s">
         <v>30</v>
       </c>
       <c r="D31" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="s">
         <v>30</v>
       </c>
       <c r="F31" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31" t="s">
         <v>30</v>
       </c>
       <c r="H31" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" t="s">
         <v>30</v>
       </c>
       <c r="J31" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K31" t="s">
         <v>30</v>
       </c>
       <c r="L31" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2" t="s">
@@ -2599,23 +2639,23 @@
       </c>
       <c r="C34" s="2">
         <f>SUM(D2:D33)</f>
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E34" s="2">
         <f>SUM(F2:F33)</f>
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="G34" s="2">
         <f>SUM(H2:H33)</f>
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="I34" s="2">
         <f>SUM(J2:J33)</f>
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="K34" s="2">
         <f>SUM(L2:L33)</f>
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="O34" s="2"/>
       <c r="Q34" s="2"/>
@@ -2744,10 +2784,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S34"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2807,42 +2849,45 @@
     <row r="2" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>IF(B2="","",IF(B2=N2,P2,N2))</f>
-        <v/>
+        <v>UCF</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="2">
-        <f>IF(C2=B2,1,0)</f>
-        <v>0</v>
+        <f>IF(C2=B2,2,0)</f>
+        <v>2</v>
       </c>
       <c r="E2" t="s">
         <v>1</v>
       </c>
       <c r="F2" s="2">
-        <f>IF(E2=B2,1,0)</f>
-        <v>0</v>
+        <f>IF(E2=B2,2,0)</f>
+        <v>2</v>
       </c>
       <c r="G2" t="s">
         <v>1</v>
       </c>
       <c r="H2" s="2">
-        <f>IF(G2=B2,1,0)</f>
-        <v>0</v>
+        <f>IF(G2=B2,2,0)</f>
+        <v>2</v>
       </c>
       <c r="I2" t="s">
         <v>1</v>
       </c>
       <c r="J2" s="2">
-        <f>IF(I2=B2,1,0)</f>
-        <v>0</v>
+        <f>IF(I2=B2,2,0)</f>
+        <v>2</v>
       </c>
       <c r="K2" t="s">
         <v>1</v>
       </c>
       <c r="L2" s="2">
-        <f>IF(K2=B2,1,0)</f>
-        <v>0</v>
+        <f>IF(K2=B2,2,0)</f>
+        <v>2</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2" t="s">
@@ -2853,7 +2898,7 @@
         <v>5</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="Q2" s="2">
         <f>COUNTIF(C2:K2,P2)</f>
@@ -2869,57 +2914,60 @@
         <v>4</v>
       </c>
       <c r="D3" s="2">
-        <f t="shared" ref="D3:D17" si="1">IF(C3=B3,1,0)</f>
+        <f t="shared" ref="D3:D17" si="1">IF(C3=B3,2,0)</f>
         <v>0</v>
       </c>
       <c r="E3" t="s">
         <v>4</v>
       </c>
       <c r="F3" s="2">
-        <f t="shared" ref="F3:F17" si="2">IF(E3=B3,1,0)</f>
+        <f t="shared" ref="F3:F17" si="2">IF(E3=B3,2,0)</f>
         <v>0</v>
       </c>
       <c r="G3" t="s">
         <v>45</v>
       </c>
       <c r="H3" s="2">
-        <f t="shared" ref="H3:H17" si="3">IF(G3=B3,1,0)</f>
+        <f t="shared" ref="H3:H17" si="3">IF(G3=B3,2,0)</f>
         <v>0</v>
       </c>
       <c r="I3" t="s">
         <v>4</v>
       </c>
       <c r="J3" s="2">
-        <f t="shared" ref="J3:J17" si="4">IF(I3=B3,1,0)</f>
+        <f t="shared" ref="J3:J17" si="4">IF(I3=B3,2,0)</f>
         <v>0</v>
       </c>
       <c r="K3" t="s">
         <v>3</v>
       </c>
       <c r="L3" s="2">
-        <f t="shared" ref="L3:L17" si="5">IF(K3=B3,1,0)</f>
+        <f t="shared" ref="L3:L17" si="5">IF(K3=B3,2,0)</f>
         <v>0</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O3" s="2">
-        <f t="shared" ref="O3:O17" si="6">COUNTIF(C3:K3,N3)</f>
-        <v>0</v>
+        <f>COUNTIF(C3:K3,N3)</f>
+        <v>3</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q3" s="2">
-        <f t="shared" ref="Q3:Q17" si="7">COUNTIF(C3:K3,P3)</f>
-        <v>0</v>
+        <f t="shared" ref="Q3:Q17" si="6">COUNTIF(C3:K3,P3)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <f>IF(B4="","",IF(B4=N4,P4,N4))</f>
+        <v>MD</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -2933,21 +2981,21 @@
       </c>
       <c r="F4" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G4" t="s">
         <v>6</v>
       </c>
       <c r="H4" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="s">
         <v>6</v>
       </c>
       <c r="J4" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K4" t="s">
         <v>48</v>
@@ -2958,142 +3006,151 @@
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O4" s="2">
+        <f t="shared" ref="O4:O17" si="7">COUNTIF(C4:K4,N4)</f>
+        <v>1</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q4" s="2">
+        <f t="shared" si="6"/>
         <v>3</v>
-      </c>
-      <c r="O4" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q4" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Minnesota</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
       </c>
       <c r="F5" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G5" t="s">
         <v>8</v>
       </c>
       <c r="H5" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="s">
         <v>8</v>
       </c>
       <c r="J5" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K5" t="s">
         <v>8</v>
       </c>
       <c r="L5" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="O5" s="2">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q5" s="2">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q5" s="2">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Baylor</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E6" t="s">
         <v>9</v>
       </c>
       <c r="F6" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G6" t="s">
         <v>9</v>
       </c>
       <c r="H6" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="s">
         <v>9</v>
       </c>
       <c r="J6" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K6" t="s">
         <v>9</v>
       </c>
       <c r="L6" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="O6" s="2">
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="O6" s="2">
+      <c r="P6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q6" s="2">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q6" s="2">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Murray St</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="2">
-        <f t="shared" ref="D7:D16" si="8">IF(C7=B7,1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E7" t="s">
@@ -3108,7 +3165,7 @@
       </c>
       <c r="H7" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="s">
         <v>11</v>
@@ -3122,22 +3179,22 @@
       </c>
       <c r="L7" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="O7" s="2">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q7" s="2">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q7" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
@@ -3149,7 +3206,7 @@
         <v>14</v>
       </c>
       <c r="D8" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E8" t="s">
@@ -3182,74 +3239,77 @@
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="O8" s="2">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q8" s="2">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P8" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q8" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>FL</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
       </c>
       <c r="D9" s="2">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="E9" t="s">
         <v>16</v>
       </c>
       <c r="F9" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G9" t="s">
         <v>16</v>
       </c>
       <c r="H9" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="s">
         <v>16</v>
       </c>
       <c r="J9" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K9" t="s">
         <v>16</v>
       </c>
       <c r="L9" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="O9" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q9" s="2">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P9" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q9" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
@@ -3261,7 +3321,7 @@
         <v>17</v>
       </c>
       <c r="D10" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E10" t="s">
@@ -3294,17 +3354,17 @@
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="O10" s="2">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q10" s="2">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P10" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q10" s="2">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -3317,7 +3377,7 @@
         <v>20</v>
       </c>
       <c r="D11" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E11" t="s">
@@ -3350,30 +3410,33 @@
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="O11" s="2">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q11" s="2">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P11" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q11" s="2">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Nova</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
       </c>
       <c r="C12" t="s">
         <v>21</v>
       </c>
       <c r="D12" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E12" t="s">
@@ -3388,7 +3451,7 @@
       </c>
       <c r="H12" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="s">
         <v>21</v>
@@ -3402,56 +3465,59 @@
       </c>
       <c r="L12" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="O12" s="2">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q12" s="2">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P12" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q12" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Iowa</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
       </c>
       <c r="C13" t="s">
         <v>24</v>
       </c>
       <c r="D13" s="2">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="E13" t="s">
         <v>24</v>
       </c>
       <c r="F13" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G13" t="s">
         <v>24</v>
       </c>
       <c r="H13" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="s">
         <v>24</v>
       </c>
       <c r="J13" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K13" t="s">
         <v>23</v>
@@ -3462,86 +3528,92 @@
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="O13" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q13" s="2">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P13" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q13" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Wash</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
       </c>
       <c r="C14" t="s">
         <v>25</v>
       </c>
       <c r="D14" s="2">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="E14" t="s">
         <v>25</v>
       </c>
       <c r="F14" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G14" t="s">
         <v>25</v>
       </c>
       <c r="H14" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="s">
         <v>25</v>
       </c>
       <c r="J14" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K14" t="s">
         <v>25</v>
       </c>
       <c r="L14" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="O14" s="2">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q14" s="2">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P14" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q14" s="2">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Kansas</v>
+      </c>
+      <c r="B15" t="s">
+        <v>27</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
       </c>
       <c r="D15" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E15" t="s">
@@ -3556,36 +3628,36 @@
       </c>
       <c r="H15" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="s">
         <v>27</v>
       </c>
       <c r="J15" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K15" t="s">
         <v>27</v>
       </c>
       <c r="L15" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="O15" s="2">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="P15" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q15" s="2">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P15" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q15" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
@@ -3597,7 +3669,7 @@
         <v>30</v>
       </c>
       <c r="D16" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E16" t="s">
@@ -3630,14 +3702,14 @@
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="O16" s="2">
         <f>COUNTIF(C16:K16,N16)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="Q16" s="2">
         <f>COUNTIF(C16:K16,P16)</f>
@@ -3647,57 +3719,60 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Wofford</v>
+      </c>
+      <c r="B17" t="s">
+        <v>32</v>
       </c>
       <c r="C17" t="s">
         <v>32</v>
       </c>
       <c r="D17" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E17" t="s">
         <v>32</v>
       </c>
       <c r="F17" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G17" t="s">
         <v>32</v>
       </c>
       <c r="H17" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="s">
         <v>32</v>
       </c>
       <c r="J17" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K17" t="s">
         <v>32</v>
       </c>
       <c r="L17" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="O17" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P17" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q17" s="2">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P17" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q17" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
@@ -3706,296 +3781,111 @@
       </c>
       <c r="C18" s="2">
         <f>SUM(D2:D17)</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2">
         <f>SUM(F2:F17)</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G18" s="2">
         <f>SUM(H2:H17)</f>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="I18" s="2">
         <f>SUM(J2:J17)</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="K18" s="2">
         <f>SUM(L2:L17)</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="M18" s="2"/>
-      <c r="N18" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="O18" s="2" t="e">
-        <f>COUNTIF(#REF!,N18)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P18" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q18" s="2" t="e">
-        <f>COUNTIF(#REF!,P18)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="Q18" s="2"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="H19" s="2"/>
       <c r="M19" s="2"/>
-      <c r="N19" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="O19" s="2" t="e">
-        <f>COUNTIF(#REF!,N19)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P19" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q19" s="2" t="e">
-        <f>COUNTIF(#REF!,P19)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="Q19" s="2"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="M20" s="2"/>
-      <c r="N20" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O20" s="2" t="e">
-        <f>COUNTIF(#REF!,N20)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P20" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q20" s="2" t="e">
-        <f>COUNTIF(#REF!,P20)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="Q20" s="2"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="M21" s="2"/>
-      <c r="N21" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O21" s="2" t="e">
-        <f>COUNTIF(#REF!,N21)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P21" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q21" s="2" t="e">
-        <f>COUNTIF(#REF!,P21)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="Q21" s="2"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="M22" s="2"/>
-      <c r="N22" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="O22" s="2" t="e">
-        <f>COUNTIF(#REF!,N22)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P22" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q22" s="2" t="e">
-        <f>COUNTIF(#REF!,P22)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="Q22" s="2"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="M23" s="2"/>
-      <c r="N23" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="O23" s="2" t="e">
-        <f>COUNTIF(#REF!,N23)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P23" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q23" s="2" t="e">
-        <f>COUNTIF(#REF!,P23)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="Q23" s="2"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="M24" s="2"/>
-      <c r="N24" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="O24" s="2" t="e">
-        <f>COUNTIF(#REF!,N24)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P24" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q24" s="2" t="e">
-        <f>COUNTIF(#REF!,P24)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="O24" s="2"/>
+      <c r="Q24" s="2"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="M25" s="2"/>
-      <c r="N25" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="O25" s="2" t="e">
-        <f>COUNTIF(#REF!,N25)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P25" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q25" s="2" t="e">
-        <f>COUNTIF(#REF!,P25)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="O25" s="2"/>
+      <c r="Q25" s="2"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="M26" s="2"/>
-      <c r="N26" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O26" s="2" t="e">
-        <f>COUNTIF(#REF!,N26)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P26" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q26" s="2" t="e">
-        <f>COUNTIF(#REF!,P26)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="O26" s="2"/>
+      <c r="Q26" s="2"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="M27" s="2"/>
-      <c r="N27" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="O27" s="2" t="e">
-        <f>COUNTIF(#REF!,N27)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P27" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q27" s="2" t="e">
-        <f>COUNTIF(#REF!,P27)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="O27" s="2"/>
+      <c r="Q27" s="2"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="M28" s="2"/>
-      <c r="N28" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="O28" s="2" t="e">
-        <f>COUNTIF(#REF!,N28)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P28" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q28" s="2" t="e">
-        <f>COUNTIF(#REF!,P28)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="O28" s="2"/>
+      <c r="Q28" s="2"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="M29" s="2"/>
-      <c r="N29" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="O29" s="2" t="e">
-        <f>COUNTIF(#REF!,N29)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P29" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q29" s="2" t="e">
-        <f>COUNTIF(#REF!,P29)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="O29" s="2"/>
+      <c r="Q29" s="2"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="M30" s="2"/>
-      <c r="N30" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="O30" s="2" t="e">
-        <f>COUNTIF(#REF!,N30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P30" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q30" s="2" t="e">
-        <f>COUNTIF(#REF!,P30)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="O30" s="2"/>
+      <c r="Q30" s="2"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="M31" s="2"/>
-      <c r="N31" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="O31" s="2" t="e">
-        <f>COUNTIF(#REF!,N31)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P31" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q31" s="2" t="e">
-        <f>COUNTIF(#REF!,P31)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="O31" s="2"/>
+      <c r="Q31" s="2"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="M32" s="2"/>
-      <c r="N32" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O32" s="2" t="e">
-        <f>COUNTIF(#REF!,N32)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P32" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q32" s="2" t="e">
-        <f>COUNTIF(#REF!,P32)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="O32" s="2"/>
+      <c r="Q32" s="2"/>
     </row>
     <row r="33" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M33" s="2"/>
-      <c r="N33" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O33" s="2" t="e">
-        <f>COUNTIF(#REF!,N33)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P33" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q33" s="2" t="e">
-        <f>COUNTIF(#REF!,P33)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
     </row>
     <row r="34" spans="13:17" x14ac:dyDescent="0.25">
       <c r="O34" s="2"/>
@@ -4003,10 +3893,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="S1">
-    <cfRule type="uniqueValues" dxfId="4" priority="7"/>
+    <cfRule type="uniqueValues" dxfId="4" priority="13"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N2:Q33">
-    <cfRule type="colorScale" priority="6">
+  <conditionalFormatting sqref="O33:Q33 N2:Q14 N15:O23 O24:O32 Q15:Q32 P16">
+    <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4017,8 +3907,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O2:Q33">
-    <cfRule type="colorScale" priority="2">
+  <conditionalFormatting sqref="O2:Q14 O33:Q33 O15:O32 Q15:Q32 P16">
+    <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4026,7 +3916,7 @@
         <color rgb="FFFCFCFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="3">
+    <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4036,7 +3926,7 @@
         <color theme="0"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="4">
+    <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4046,7 +3936,7 @@
         <color rgb="FF00B0F0"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="5">
+    <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4062,7 +3952,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:S34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5076,7 +4966,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:S34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5938,7 +5828,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:S34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6720,7 +6610,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:S34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7462,7 +7352,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/MarchMadness2019.xlsx
+++ b/MarchMadness2019.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prosk\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rmadsen\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4B716FB-D0AE-4D3B-B897-9E565A8AFD19}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2985" yWindow="2985" windowWidth="21600" windowHeight="11385" tabRatio="687" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11160" windowHeight="8295" tabRatio="687"/>
   </bookViews>
   <sheets>
     <sheet name="Round 1" sheetId="1" r:id="rId1"/>
@@ -21,8 +20,7 @@
     <sheet name="Champion" sheetId="8" r:id="rId6"/>
     <sheet name="Teams" sheetId="3" state="hidden" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="76">
   <si>
     <t>Randall</t>
   </si>
@@ -271,7 +269,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -683,10 +681,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S35"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -2784,11 +2782,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2908,21 +2906,24 @@
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f t="shared" ref="A3:A17" si="0">IF(B3="","",IF(B3=N3,P3,N3))</f>
-        <v/>
+        <v>Liberty</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="2">
         <f t="shared" ref="D3:D17" si="1">IF(C3=B3,2,0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E3" t="s">
         <v>4</v>
       </c>
       <c r="F3" s="2">
         <f t="shared" ref="F3:F17" si="2">IF(E3=B3,2,0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G3" t="s">
         <v>45</v>
@@ -2936,7 +2937,7 @@
       </c>
       <c r="J3" s="2">
         <f t="shared" ref="J3:J17" si="4">IF(I3=B3,2,0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K3" t="s">
         <v>3</v>
@@ -3200,21 +3201,24 @@
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Buffalo</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
       </c>
       <c r="D8" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E8" t="s">
         <v>14</v>
       </c>
       <c r="F8" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G8" t="s">
         <v>36</v>
@@ -3228,14 +3232,14 @@
       </c>
       <c r="J8" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K8" t="s">
         <v>14</v>
       </c>
       <c r="L8" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2" t="s">
@@ -3315,42 +3319,45 @@
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Oklahoma</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
       </c>
       <c r="D10" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E10" t="s">
         <v>17</v>
       </c>
       <c r="F10" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G10" t="s">
         <v>17</v>
       </c>
       <c r="H10" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="s">
         <v>17</v>
       </c>
       <c r="J10" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K10" t="s">
         <v>17</v>
       </c>
       <c r="L10" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2" t="s">
@@ -3371,7 +3378,10 @@
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>UC Irvine</v>
+      </c>
+      <c r="B11" t="s">
+        <v>38</v>
       </c>
       <c r="C11" t="s">
         <v>20</v>
@@ -3385,7 +3395,7 @@
       </c>
       <c r="F11" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G11" t="s">
         <v>20</v>
@@ -3406,7 +3416,7 @@
       </c>
       <c r="L11" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2" t="s">
@@ -3663,42 +3673,45 @@
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Ohio St</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
       </c>
       <c r="C16" t="s">
         <v>30</v>
       </c>
       <c r="D16" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E16" t="s">
         <v>30</v>
       </c>
       <c r="F16" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G16" t="s">
         <v>30</v>
       </c>
       <c r="H16" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="s">
         <v>30</v>
       </c>
       <c r="J16" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K16" t="s">
         <v>30</v>
       </c>
       <c r="L16" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2" t="s">
@@ -3781,24 +3794,24 @@
       </c>
       <c r="C18" s="2">
         <f>SUM(D2:D17)</f>
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2">
         <f>SUM(F2:F17)</f>
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="G18" s="2">
         <f>SUM(H2:H17)</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I18" s="2">
         <f>SUM(J2:J17)</f>
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="K18" s="2">
         <f>SUM(L2:L17)</f>
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3952,10 +3965,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S34"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4021,35 +4036,35 @@
         <v>1</v>
       </c>
       <c r="D2" s="2">
-        <f>IF(C2=B2,1,0)</f>
+        <f>IF(C2=B2,4,0)</f>
         <v>0</v>
       </c>
       <c r="E2" t="s">
         <v>1</v>
       </c>
       <c r="F2" s="2">
-        <f>IF(E2=B2,1,0)</f>
+        <f>IF(E2=B2,4,0)</f>
         <v>0</v>
       </c>
       <c r="G2" t="s">
         <v>1</v>
       </c>
       <c r="H2" s="2">
-        <f>IF(G2=B2,1,0)</f>
+        <f>IF(G2=B2,4,0)</f>
         <v>0</v>
       </c>
       <c r="I2" t="s">
         <v>1</v>
       </c>
       <c r="J2" s="2">
-        <f>IF(I2=B2,1,0)</f>
+        <f>IF(I2=B2,4,0)</f>
         <v>0</v>
       </c>
       <c r="K2" t="s">
         <v>1</v>
       </c>
       <c r="L2" s="2">
-        <f>IF(K2=B2,1,0)</f>
+        <f>IF(K2=B2,4,0)</f>
         <v>0</v>
       </c>
       <c r="M2" s="2"/>
@@ -4061,7 +4076,7 @@
         <v>5</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>58</v>
+        <v>4</v>
       </c>
       <c r="Q2" s="2">
         <f>COUNTIF(C2:K2,P2)</f>
@@ -4077,51 +4092,51 @@
         <v>8</v>
       </c>
       <c r="D3" s="2">
-        <f t="shared" ref="D3:D6" si="1">IF(C3=B3,1,0)</f>
+        <f t="shared" ref="D3:D9" si="1">IF(C3=B3,4,0)</f>
         <v>0</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
       </c>
       <c r="F3" s="2">
-        <f t="shared" ref="F3:F9" si="2">IF(E3=B3,1,0)</f>
+        <f t="shared" ref="F3:F9" si="2">IF(E3=B3,4,0)</f>
         <v>0</v>
       </c>
       <c r="G3" t="s">
         <v>6</v>
       </c>
       <c r="H3" s="2">
-        <f t="shared" ref="H3:H9" si="3">IF(G3=B3,1,0)</f>
+        <f t="shared" ref="H3:H9" si="3">IF(G3=B3,4,0)</f>
         <v>0</v>
       </c>
       <c r="I3" t="s">
         <v>8</v>
       </c>
       <c r="J3" s="2">
-        <f t="shared" ref="J3:J9" si="4">IF(I3=B3,1,0)</f>
+        <f t="shared" ref="J3:J9" si="4">IF(I3=B3,4,0)</f>
         <v>0</v>
       </c>
       <c r="K3" t="s">
         <v>8</v>
       </c>
       <c r="L3" s="2">
-        <f t="shared" ref="L3:L9" si="5">IF(K3=B3,1,0)</f>
+        <f t="shared" ref="L3:L9" si="5">IF(K3=B3,4,0)</f>
         <v>0</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="O3" s="2">
         <f t="shared" ref="O3:O9" si="6">COUNTIF(C3:K3,N3)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="Q3" s="2">
         <f t="shared" ref="Q3:Q9" si="7">COUNTIF(C3:K3,P3)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
@@ -4166,18 +4181,18 @@
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="O4" s="2">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="2">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
@@ -4222,14 +4237,14 @@
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="O5" s="2">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="Q5" s="2">
         <f t="shared" si="7"/>
@@ -4278,18 +4293,18 @@
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="O6" s="2">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="2">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
@@ -4301,7 +4316,7 @@
         <v>24</v>
       </c>
       <c r="D7" s="2">
-        <f>IF(C7=B7,1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E7" t="s">
@@ -4334,14 +4349,14 @@
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="O7" s="2">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="Q7" s="2">
         <f t="shared" si="7"/>
@@ -4357,7 +4372,7 @@
         <v>25</v>
       </c>
       <c r="D8" s="2">
-        <f>IF(C8=B8,1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E8" t="s">
@@ -4390,18 +4405,18 @@
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="O8" s="2">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="Q8" s="2">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
@@ -4413,7 +4428,7 @@
         <v>32</v>
       </c>
       <c r="D9" s="2">
-        <f>IF(C9=B9,1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E9" t="s">
@@ -4446,18 +4461,18 @@
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="O9" s="2">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="Q9" s="2">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
@@ -4487,419 +4502,179 @@
       </c>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
-      <c r="N10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="O10" s="2" t="e">
-        <f>COUNTIF(#REF!,N10)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P10" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q10" s="2" t="e">
-        <f>COUNTIF(#REF!,P10)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="H11" s="2"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
-      <c r="N11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="O11" s="2" t="e">
-        <f>COUNTIF(#REF!,N11)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P11" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q11" s="2" t="e">
-        <f>COUNTIF(#REF!,P11)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
-      <c r="N12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="O12" s="2" t="e">
-        <f>COUNTIF(#REF!,N12)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P12" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q12" s="2" t="e">
-        <f>COUNTIF(#REF!,P12)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
-      <c r="N13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="O13" s="2" t="e">
-        <f>COUNTIF(#REF!,N13)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P13" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q13" s="2" t="e">
-        <f>COUNTIF(#REF!,P13)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
-      <c r="N14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O14" s="2" t="e">
-        <f>COUNTIF(#REF!,N14)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P14" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q14" s="2" t="e">
-        <f>COUNTIF(#REF!,P14)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
-      <c r="N15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="O15" s="2" t="e">
-        <f>COUNTIF(#REF!,N15)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P15" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q15" s="2" t="e">
-        <f>COUNTIF(#REF!,P15)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
-      <c r="N16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="O16" s="2" t="e">
-        <f>COUNTIF(#REF!,N16)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P16" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q16" s="2" t="e">
-        <f>COUNTIF(#REF!,P16)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
     </row>
     <row r="17" spans="12:17" x14ac:dyDescent="0.25">
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
-      <c r="N17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="O17" s="2" t="e">
-        <f>COUNTIF(#REF!,N17)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P17" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q17" s="2" t="e">
-        <f>COUNTIF(#REF!,P17)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
     </row>
     <row r="18" spans="12:17" x14ac:dyDescent="0.25">
       <c r="M18" s="2"/>
-      <c r="N18" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="O18" s="2" t="e">
-        <f>COUNTIF(#REF!,N18)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P18" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q18" s="2" t="e">
-        <f>COUNTIF(#REF!,P18)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
     </row>
     <row r="19" spans="12:17" x14ac:dyDescent="0.25">
       <c r="M19" s="2"/>
-      <c r="N19" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="O19" s="2" t="e">
-        <f>COUNTIF(#REF!,N19)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P19" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q19" s="2" t="e">
-        <f>COUNTIF(#REF!,P19)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
     </row>
     <row r="20" spans="12:17" x14ac:dyDescent="0.25">
       <c r="M20" s="2"/>
-      <c r="N20" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O20" s="2" t="e">
-        <f>COUNTIF(#REF!,N20)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P20" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q20" s="2" t="e">
-        <f>COUNTIF(#REF!,P20)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
     </row>
     <row r="21" spans="12:17" x14ac:dyDescent="0.25">
       <c r="M21" s="2"/>
-      <c r="N21" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O21" s="2" t="e">
-        <f>COUNTIF(#REF!,N21)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P21" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q21" s="2" t="e">
-        <f>COUNTIF(#REF!,P21)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
     </row>
     <row r="22" spans="12:17" x14ac:dyDescent="0.25">
       <c r="M22" s="2"/>
-      <c r="N22" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="O22" s="2" t="e">
-        <f>COUNTIF(#REF!,N22)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P22" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q22" s="2" t="e">
-        <f>COUNTIF(#REF!,P22)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
     </row>
     <row r="23" spans="12:17" x14ac:dyDescent="0.25">
       <c r="M23" s="2"/>
-      <c r="N23" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="O23" s="2" t="e">
-        <f>COUNTIF(#REF!,N23)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P23" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q23" s="2" t="e">
-        <f>COUNTIF(#REF!,P23)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
     </row>
     <row r="24" spans="12:17" x14ac:dyDescent="0.25">
       <c r="M24" s="2"/>
-      <c r="N24" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="O24" s="2" t="e">
-        <f>COUNTIF(#REF!,N24)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P24" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q24" s="2" t="e">
-        <f>COUNTIF(#REF!,P24)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
     </row>
     <row r="25" spans="12:17" x14ac:dyDescent="0.25">
       <c r="M25" s="2"/>
-      <c r="N25" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="O25" s="2" t="e">
-        <f>COUNTIF(#REF!,N25)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P25" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q25" s="2" t="e">
-        <f>COUNTIF(#REF!,P25)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
     </row>
     <row r="26" spans="12:17" x14ac:dyDescent="0.25">
       <c r="M26" s="2"/>
-      <c r="N26" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O26" s="2" t="e">
-        <f>COUNTIF(#REF!,N26)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P26" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q26" s="2" t="e">
-        <f>COUNTIF(#REF!,P26)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
     </row>
     <row r="27" spans="12:17" x14ac:dyDescent="0.25">
       <c r="M27" s="2"/>
-      <c r="N27" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="O27" s="2" t="e">
-        <f>COUNTIF(#REF!,N27)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P27" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q27" s="2" t="e">
-        <f>COUNTIF(#REF!,P27)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
     </row>
     <row r="28" spans="12:17" x14ac:dyDescent="0.25">
       <c r="M28" s="2"/>
-      <c r="N28" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="O28" s="2" t="e">
-        <f>COUNTIF(#REF!,N28)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P28" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q28" s="2" t="e">
-        <f>COUNTIF(#REF!,P28)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
     </row>
     <row r="29" spans="12:17" x14ac:dyDescent="0.25">
       <c r="M29" s="2"/>
-      <c r="N29" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="O29" s="2" t="e">
-        <f>COUNTIF(#REF!,N29)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P29" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q29" s="2" t="e">
-        <f>COUNTIF(#REF!,P29)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
     </row>
     <row r="30" spans="12:17" x14ac:dyDescent="0.25">
       <c r="M30" s="2"/>
-      <c r="N30" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="O30" s="2" t="e">
-        <f>COUNTIF(#REF!,N30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P30" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q30" s="2" t="e">
-        <f>COUNTIF(#REF!,P30)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
     </row>
     <row r="31" spans="12:17" x14ac:dyDescent="0.25">
       <c r="M31" s="2"/>
-      <c r="N31" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="O31" s="2" t="e">
-        <f>COUNTIF(#REF!,N31)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P31" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q31" s="2" t="e">
-        <f>COUNTIF(#REF!,P31)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
     </row>
     <row r="32" spans="12:17" x14ac:dyDescent="0.25">
       <c r="M32" s="2"/>
-      <c r="N32" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O32" s="2" t="e">
-        <f>COUNTIF(#REF!,N32)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P32" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q32" s="2" t="e">
-        <f>COUNTIF(#REF!,P32)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
     </row>
     <row r="33" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M33" s="2"/>
-      <c r="N33" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O33" s="2" t="e">
-        <f>COUNTIF(#REF!,N33)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P33" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q33" s="2" t="e">
-        <f>COUNTIF(#REF!,P33)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
     </row>
     <row r="34" spans="13:17" x14ac:dyDescent="0.25">
       <c r="O34" s="2"/>
@@ -4966,7 +4741,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5035,35 +4810,35 @@
         <v>1</v>
       </c>
       <c r="D2" s="2">
-        <f>IF(C2=B2,1,0)</f>
+        <f>IF(C2=B2,8,0)</f>
         <v>0</v>
       </c>
       <c r="E2" t="s">
         <v>1</v>
       </c>
       <c r="F2" s="2">
-        <f>IF(E2=B2,1,0)</f>
+        <f>IF(E2=B2,8,0)</f>
         <v>0</v>
       </c>
       <c r="G2" t="s">
         <v>6</v>
       </c>
       <c r="H2" s="2">
-        <f>IF(G2=B2,1,0)</f>
+        <f>IF(G2=B2,8,0)</f>
         <v>0</v>
       </c>
       <c r="I2" t="s">
         <v>8</v>
       </c>
       <c r="J2" s="2">
-        <f>IF(I2=B2,1,0)</f>
+        <f>IF(I2=B2,8,0)</f>
         <v>0</v>
       </c>
       <c r="K2" t="s">
         <v>1</v>
       </c>
       <c r="L2" s="2">
-        <f>IF(K2=B2,1,0)</f>
+        <f>IF(K2=B2,8,0)</f>
         <v>0</v>
       </c>
       <c r="M2" s="2"/>
@@ -5091,35 +4866,35 @@
         <v>9</v>
       </c>
       <c r="D3" s="2">
-        <f t="shared" ref="D3:D5" si="1">IF(C3=B3,1,0)</f>
+        <f t="shared" ref="D3:D5" si="1">IF(C3=B3,8,0)</f>
         <v>0</v>
       </c>
       <c r="E3" t="s">
         <v>16</v>
       </c>
       <c r="F3" s="2">
-        <f t="shared" ref="F3:F5" si="2">IF(E3=B3,1,0)</f>
+        <f t="shared" ref="F3:F5" si="2">IF(E3=B3,8,0)</f>
         <v>0</v>
       </c>
       <c r="G3" t="s">
         <v>12</v>
       </c>
       <c r="H3" s="2">
-        <f t="shared" ref="H3:H5" si="3">IF(G3=B3,1,0)</f>
+        <f t="shared" ref="H3:H5" si="3">IF(G3=B3,8,0)</f>
         <v>0</v>
       </c>
       <c r="I3" t="s">
         <v>11</v>
       </c>
       <c r="J3" s="2">
-        <f t="shared" ref="J3:J5" si="4">IF(I3=B3,1,0)</f>
+        <f t="shared" ref="J3:J5" si="4">IF(I3=B3,8,0)</f>
         <v>0</v>
       </c>
       <c r="K3" t="s">
         <v>9</v>
       </c>
       <c r="L3" s="2">
-        <f t="shared" ref="L3:L5" si="5">IF(K3=B3,1,0)</f>
+        <f t="shared" ref="L3:L5" si="5">IF(K3=B3,8,0)</f>
         <v>0</v>
       </c>
       <c r="M3" s="2"/>
@@ -5277,491 +5052,211 @@
       </c>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
-      <c r="N6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="O6" s="2" t="e">
-        <f>COUNTIF(#REF!,N6)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q6" s="2" t="e">
-        <f>COUNTIF(#REF!,P6)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="H7" s="2"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
-      <c r="N7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O7" s="2" t="e">
-        <f>COUNTIF(#REF!,N7)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q7" s="2" t="e">
-        <f>COUNTIF(#REF!,P7)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
-      <c r="N8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="O8" s="2" t="e">
-        <f>COUNTIF(#REF!,N8)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P8" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q8" s="2" t="e">
-        <f>COUNTIF(#REF!,P8)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
-      <c r="N9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="O9" s="2" t="e">
-        <f>COUNTIF(#REF!,N9)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P9" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q9" s="2" t="e">
-        <f>COUNTIF(#REF!,P9)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
-      <c r="N10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="O10" s="2" t="e">
-        <f>COUNTIF(#REF!,N10)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P10" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q10" s="2" t="e">
-        <f>COUNTIF(#REF!,P10)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
-      <c r="N11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="O11" s="2" t="e">
-        <f>COUNTIF(#REF!,N11)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P11" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q11" s="2" t="e">
-        <f>COUNTIF(#REF!,P11)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
-      <c r="N12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="O12" s="2" t="e">
-        <f>COUNTIF(#REF!,N12)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P12" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q12" s="2" t="e">
-        <f>COUNTIF(#REF!,P12)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
-      <c r="N13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="O13" s="2" t="e">
-        <f>COUNTIF(#REF!,N13)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P13" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q13" s="2" t="e">
-        <f>COUNTIF(#REF!,P13)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
-      <c r="N14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O14" s="2" t="e">
-        <f>COUNTIF(#REF!,N14)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P14" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q14" s="2" t="e">
-        <f>COUNTIF(#REF!,P14)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
-      <c r="N15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="O15" s="2" t="e">
-        <f>COUNTIF(#REF!,N15)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P15" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q15" s="2" t="e">
-        <f>COUNTIF(#REF!,P15)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
-      <c r="N16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="O16" s="2" t="e">
-        <f>COUNTIF(#REF!,N16)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P16" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q16" s="2" t="e">
-        <f>COUNTIF(#REF!,P16)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
     </row>
     <row r="17" spans="12:17" x14ac:dyDescent="0.25">
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
-      <c r="N17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="O17" s="2" t="e">
-        <f>COUNTIF(#REF!,N17)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P17" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q17" s="2" t="e">
-        <f>COUNTIF(#REF!,P17)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
     </row>
     <row r="18" spans="12:17" x14ac:dyDescent="0.25">
       <c r="M18" s="2"/>
-      <c r="N18" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="O18" s="2" t="e">
-        <f>COUNTIF(#REF!,N18)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P18" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q18" s="2" t="e">
-        <f>COUNTIF(#REF!,P18)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
     </row>
     <row r="19" spans="12:17" x14ac:dyDescent="0.25">
       <c r="M19" s="2"/>
-      <c r="N19" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="O19" s="2" t="e">
-        <f>COUNTIF(#REF!,N19)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P19" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q19" s="2" t="e">
-        <f>COUNTIF(#REF!,P19)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
     </row>
     <row r="20" spans="12:17" x14ac:dyDescent="0.25">
       <c r="M20" s="2"/>
-      <c r="N20" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O20" s="2" t="e">
-        <f>COUNTIF(#REF!,N20)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P20" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q20" s="2" t="e">
-        <f>COUNTIF(#REF!,P20)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
     </row>
     <row r="21" spans="12:17" x14ac:dyDescent="0.25">
       <c r="M21" s="2"/>
-      <c r="N21" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O21" s="2" t="e">
-        <f>COUNTIF(#REF!,N21)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P21" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q21" s="2" t="e">
-        <f>COUNTIF(#REF!,P21)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
     </row>
     <row r="22" spans="12:17" x14ac:dyDescent="0.25">
       <c r="M22" s="2"/>
-      <c r="N22" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="O22" s="2" t="e">
-        <f>COUNTIF(#REF!,N22)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P22" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q22" s="2" t="e">
-        <f>COUNTIF(#REF!,P22)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
     </row>
     <row r="23" spans="12:17" x14ac:dyDescent="0.25">
       <c r="M23" s="2"/>
-      <c r="N23" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="O23" s="2" t="e">
-        <f>COUNTIF(#REF!,N23)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P23" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q23" s="2" t="e">
-        <f>COUNTIF(#REF!,P23)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
     </row>
     <row r="24" spans="12:17" x14ac:dyDescent="0.25">
       <c r="M24" s="2"/>
-      <c r="N24" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="O24" s="2" t="e">
-        <f>COUNTIF(#REF!,N24)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P24" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q24" s="2" t="e">
-        <f>COUNTIF(#REF!,P24)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
     </row>
     <row r="25" spans="12:17" x14ac:dyDescent="0.25">
       <c r="M25" s="2"/>
-      <c r="N25" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="O25" s="2" t="e">
-        <f>COUNTIF(#REF!,N25)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P25" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q25" s="2" t="e">
-        <f>COUNTIF(#REF!,P25)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
     </row>
     <row r="26" spans="12:17" x14ac:dyDescent="0.25">
       <c r="M26" s="2"/>
-      <c r="N26" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O26" s="2" t="e">
-        <f>COUNTIF(#REF!,N26)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P26" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q26" s="2" t="e">
-        <f>COUNTIF(#REF!,P26)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
     </row>
     <row r="27" spans="12:17" x14ac:dyDescent="0.25">
       <c r="M27" s="2"/>
-      <c r="N27" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="O27" s="2" t="e">
-        <f>COUNTIF(#REF!,N27)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P27" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q27" s="2" t="e">
-        <f>COUNTIF(#REF!,P27)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
     </row>
     <row r="28" spans="12:17" x14ac:dyDescent="0.25">
       <c r="M28" s="2"/>
-      <c r="N28" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="O28" s="2" t="e">
-        <f>COUNTIF(#REF!,N28)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P28" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q28" s="2" t="e">
-        <f>COUNTIF(#REF!,P28)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
     </row>
     <row r="29" spans="12:17" x14ac:dyDescent="0.25">
       <c r="M29" s="2"/>
-      <c r="N29" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="O29" s="2" t="e">
-        <f>COUNTIF(#REF!,N29)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P29" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q29" s="2" t="e">
-        <f>COUNTIF(#REF!,P29)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
     </row>
     <row r="30" spans="12:17" x14ac:dyDescent="0.25">
       <c r="M30" s="2"/>
-      <c r="N30" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="O30" s="2" t="e">
-        <f>COUNTIF(#REF!,N30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P30" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q30" s="2" t="e">
-        <f>COUNTIF(#REF!,P30)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
     </row>
     <row r="31" spans="12:17" x14ac:dyDescent="0.25">
       <c r="M31" s="2"/>
-      <c r="N31" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="O31" s="2" t="e">
-        <f>COUNTIF(#REF!,N31)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P31" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q31" s="2" t="e">
-        <f>COUNTIF(#REF!,P31)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
     </row>
     <row r="32" spans="12:17" x14ac:dyDescent="0.25">
       <c r="M32" s="2"/>
-      <c r="N32" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O32" s="2" t="e">
-        <f>COUNTIF(#REF!,N32)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P32" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q32" s="2" t="e">
-        <f>COUNTIF(#REF!,P32)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
     </row>
     <row r="33" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M33" s="2"/>
-      <c r="N33" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O33" s="2" t="e">
-        <f>COUNTIF(#REF!,N33)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P33" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q33" s="2" t="e">
-        <f>COUNTIF(#REF!,P33)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
     </row>
     <row r="34" spans="13:17" x14ac:dyDescent="0.25">
       <c r="O34" s="2"/>
@@ -5828,7 +5323,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5897,35 +5392,35 @@
         <v>1</v>
       </c>
       <c r="D2" s="2">
-        <f>IF(C2=B2,1,0)</f>
+        <f>IF(C2=B2,16,0)</f>
         <v>0</v>
       </c>
       <c r="E2" t="s">
         <v>1</v>
       </c>
       <c r="F2" s="2">
-        <f>IF(E2=B2,1,0)</f>
+        <f>IF(E2=B2,16,0)</f>
         <v>0</v>
       </c>
       <c r="G2" t="s">
         <v>12</v>
       </c>
       <c r="H2" s="2">
-        <f>IF(G2=B2,1,0)</f>
+        <f>IF(G2=B2,16,0)</f>
         <v>0</v>
       </c>
       <c r="I2" t="s">
         <v>8</v>
       </c>
       <c r="J2" s="2">
-        <f>IF(I2=B2,1,0)</f>
+        <f>IF(I2=B2,16,0)</f>
         <v>0</v>
       </c>
       <c r="K2" t="s">
         <v>1</v>
       </c>
       <c r="L2" s="2">
-        <f>IF(K2=B2,1,0)</f>
+        <f>IF(K2=B2,16,0)</f>
         <v>0</v>
       </c>
       <c r="M2" s="2"/>
@@ -5953,35 +5448,35 @@
         <v>25</v>
       </c>
       <c r="D3" s="2">
-        <f t="shared" ref="D3" si="1">IF(C3=B3,1,0)</f>
+        <f>IF(C3=B3,16,0)</f>
         <v>0</v>
       </c>
       <c r="E3" t="s">
         <v>30</v>
       </c>
       <c r="F3" s="2">
-        <f t="shared" ref="F3" si="2">IF(E3=B3,1,0)</f>
+        <f>IF(E3=B3,16,0)</f>
         <v>0</v>
       </c>
       <c r="G3" t="s">
         <v>27</v>
       </c>
       <c r="H3" s="2">
-        <f t="shared" ref="H3" si="3">IF(G3=B3,1,0)</f>
+        <f>IF(G3=B3,16,0)</f>
         <v>0</v>
       </c>
       <c r="I3" t="s">
         <v>32</v>
       </c>
       <c r="J3" s="2">
-        <f t="shared" ref="J3" si="4">IF(I3=B3,1,0)</f>
+        <f>IF(I3=B3,16,0)</f>
         <v>0</v>
       </c>
       <c r="K3" t="s">
         <v>25</v>
       </c>
       <c r="L3" s="2">
-        <f t="shared" ref="L3" si="5">IF(K3=B3,1,0)</f>
+        <f>IF(K3=B3,16,0)</f>
         <v>0</v>
       </c>
       <c r="M3" s="2"/>
@@ -5989,14 +5484,14 @@
         <v>2</v>
       </c>
       <c r="O3" s="2">
-        <f t="shared" ref="O3" si="6">COUNTIF(C3:K3,N3)</f>
+        <f t="shared" ref="O3" si="1">COUNTIF(C3:K3,N3)</f>
         <v>0</v>
       </c>
       <c r="P3" s="2" t="s">
         <v>44</v>
       </c>
       <c r="Q3" s="2">
-        <f t="shared" ref="Q3" si="7">COUNTIF(C3:K3,P3)</f>
+        <f t="shared" ref="Q3" si="2">COUNTIF(C3:K3,P3)</f>
         <v>0</v>
       </c>
     </row>
@@ -6027,523 +5522,223 @@
       </c>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
-      <c r="N4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O4" s="2" t="e">
-        <f>COUNTIF(#REF!,N4)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q4" s="2" t="e">
-        <f>COUNTIF(#REF!,P4)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="H5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
-      <c r="N5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="O5" s="2" t="e">
-        <f>COUNTIF(#REF!,N5)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q5" s="2" t="e">
-        <f>COUNTIF(#REF!,P5)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
-      <c r="N6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="O6" s="2" t="e">
-        <f>COUNTIF(#REF!,N6)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q6" s="2" t="e">
-        <f>COUNTIF(#REF!,P6)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
-      <c r="N7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O7" s="2" t="e">
-        <f>COUNTIF(#REF!,N7)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q7" s="2" t="e">
-        <f>COUNTIF(#REF!,P7)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
-      <c r="N8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="O8" s="2" t="e">
-        <f>COUNTIF(#REF!,N8)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P8" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q8" s="2" t="e">
-        <f>COUNTIF(#REF!,P8)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
-      <c r="N9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="O9" s="2" t="e">
-        <f>COUNTIF(#REF!,N9)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P9" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q9" s="2" t="e">
-        <f>COUNTIF(#REF!,P9)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
-      <c r="N10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="O10" s="2" t="e">
-        <f>COUNTIF(#REF!,N10)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P10" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q10" s="2" t="e">
-        <f>COUNTIF(#REF!,P10)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
-      <c r="N11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="O11" s="2" t="e">
-        <f>COUNTIF(#REF!,N11)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P11" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q11" s="2" t="e">
-        <f>COUNTIF(#REF!,P11)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
-      <c r="N12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="O12" s="2" t="e">
-        <f>COUNTIF(#REF!,N12)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P12" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q12" s="2" t="e">
-        <f>COUNTIF(#REF!,P12)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
-      <c r="N13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="O13" s="2" t="e">
-        <f>COUNTIF(#REF!,N13)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P13" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q13" s="2" t="e">
-        <f>COUNTIF(#REF!,P13)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
-      <c r="N14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O14" s="2" t="e">
-        <f>COUNTIF(#REF!,N14)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P14" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q14" s="2" t="e">
-        <f>COUNTIF(#REF!,P14)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
-      <c r="N15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="O15" s="2" t="e">
-        <f>COUNTIF(#REF!,N15)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P15" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q15" s="2" t="e">
-        <f>COUNTIF(#REF!,P15)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="M16" s="2"/>
-      <c r="N16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="O16" s="2" t="e">
-        <f>COUNTIF(#REF!,N16)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P16" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q16" s="2" t="e">
-        <f>COUNTIF(#REF!,P16)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
     </row>
     <row r="17" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M17" s="2"/>
-      <c r="N17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="O17" s="2" t="e">
-        <f>COUNTIF(#REF!,N17)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P17" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q17" s="2" t="e">
-        <f>COUNTIF(#REF!,P17)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
     </row>
     <row r="18" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M18" s="2"/>
-      <c r="N18" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="O18" s="2" t="e">
-        <f>COUNTIF(#REF!,N18)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P18" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q18" s="2" t="e">
-        <f>COUNTIF(#REF!,P18)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
     </row>
     <row r="19" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M19" s="2"/>
-      <c r="N19" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="O19" s="2" t="e">
-        <f>COUNTIF(#REF!,N19)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P19" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q19" s="2" t="e">
-        <f>COUNTIF(#REF!,P19)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
     </row>
     <row r="20" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M20" s="2"/>
-      <c r="N20" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O20" s="2" t="e">
-        <f>COUNTIF(#REF!,N20)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P20" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q20" s="2" t="e">
-        <f>COUNTIF(#REF!,P20)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
     </row>
     <row r="21" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M21" s="2"/>
-      <c r="N21" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O21" s="2" t="e">
-        <f>COUNTIF(#REF!,N21)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P21" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q21" s="2" t="e">
-        <f>COUNTIF(#REF!,P21)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
     </row>
     <row r="22" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M22" s="2"/>
-      <c r="N22" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="O22" s="2" t="e">
-        <f>COUNTIF(#REF!,N22)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P22" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q22" s="2" t="e">
-        <f>COUNTIF(#REF!,P22)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
     </row>
     <row r="23" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M23" s="2"/>
-      <c r="N23" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="O23" s="2" t="e">
-        <f>COUNTIF(#REF!,N23)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P23" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q23" s="2" t="e">
-        <f>COUNTIF(#REF!,P23)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
     </row>
     <row r="24" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M24" s="2"/>
-      <c r="N24" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="O24" s="2" t="e">
-        <f>COUNTIF(#REF!,N24)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P24" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q24" s="2" t="e">
-        <f>COUNTIF(#REF!,P24)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
     </row>
     <row r="25" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M25" s="2"/>
-      <c r="N25" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="O25" s="2" t="e">
-        <f>COUNTIF(#REF!,N25)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P25" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q25" s="2" t="e">
-        <f>COUNTIF(#REF!,P25)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
     </row>
     <row r="26" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M26" s="2"/>
-      <c r="N26" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O26" s="2" t="e">
-        <f>COUNTIF(#REF!,N26)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P26" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q26" s="2" t="e">
-        <f>COUNTIF(#REF!,P26)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
     </row>
     <row r="27" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M27" s="2"/>
-      <c r="N27" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="O27" s="2" t="e">
-        <f>COUNTIF(#REF!,N27)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P27" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q27" s="2" t="e">
-        <f>COUNTIF(#REF!,P27)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
     </row>
     <row r="28" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M28" s="2"/>
-      <c r="N28" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="O28" s="2" t="e">
-        <f>COUNTIF(#REF!,N28)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P28" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q28" s="2" t="e">
-        <f>COUNTIF(#REF!,P28)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
     </row>
     <row r="29" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M29" s="2"/>
-      <c r="N29" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="O29" s="2" t="e">
-        <f>COUNTIF(#REF!,N29)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P29" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q29" s="2" t="e">
-        <f>COUNTIF(#REF!,P29)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
     </row>
     <row r="30" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M30" s="2"/>
-      <c r="N30" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="O30" s="2" t="e">
-        <f>COUNTIF(#REF!,N30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P30" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q30" s="2" t="e">
-        <f>COUNTIF(#REF!,P30)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
     </row>
     <row r="31" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M31" s="2"/>
-      <c r="N31" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="O31" s="2" t="e">
-        <f>COUNTIF(#REF!,N31)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P31" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q31" s="2" t="e">
-        <f>COUNTIF(#REF!,P31)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
     </row>
     <row r="32" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="N32" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O32" s="2" t="e">
-        <f>COUNTIF(#REF!,N32)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P32" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q32" s="2" t="e">
-        <f>COUNTIF(#REF!,P32)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
     </row>
     <row r="33" spans="14:17" x14ac:dyDescent="0.25">
-      <c r="N33" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O33" s="2" t="e">
-        <f>COUNTIF(#REF!,N33)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P33" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q33" s="2" t="e">
-        <f>COUNTIF(#REF!,P33)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
     </row>
     <row r="34" spans="14:17" x14ac:dyDescent="0.25">
       <c r="O34" s="2"/>
@@ -6610,7 +5805,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6753,539 +5948,229 @@
       </c>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
-      <c r="N3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="2" t="e">
-        <f>COUNTIF(#REF!,N3)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q3" s="2" t="e">
-        <f>COUNTIF(#REF!,P3)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="H4" s="2"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
-      <c r="N4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O4" s="2" t="e">
-        <f>COUNTIF(#REF!,N4)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q4" s="2" t="e">
-        <f>COUNTIF(#REF!,P4)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
-      <c r="N5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="O5" s="2" t="e">
-        <f>COUNTIF(#REF!,N5)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q5" s="2" t="e">
-        <f>COUNTIF(#REF!,P5)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
-      <c r="N6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="O6" s="2" t="e">
-        <f>COUNTIF(#REF!,N6)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q6" s="2" t="e">
-        <f>COUNTIF(#REF!,P6)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
-      <c r="N7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O7" s="2" t="e">
-        <f>COUNTIF(#REF!,N7)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q7" s="2" t="e">
-        <f>COUNTIF(#REF!,P7)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
-      <c r="N8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="O8" s="2" t="e">
-        <f>COUNTIF(#REF!,N8)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P8" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q8" s="2" t="e">
-        <f>COUNTIF(#REF!,P8)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
-      <c r="N9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="O9" s="2" t="e">
-        <f>COUNTIF(#REF!,N9)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P9" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q9" s="2" t="e">
-        <f>COUNTIF(#REF!,P9)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
-      <c r="N10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="O10" s="2" t="e">
-        <f>COUNTIF(#REF!,N10)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P10" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q10" s="2" t="e">
-        <f>COUNTIF(#REF!,P10)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
-      <c r="N11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="O11" s="2" t="e">
-        <f>COUNTIF(#REF!,N11)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P11" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q11" s="2" t="e">
-        <f>COUNTIF(#REF!,P11)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
-      <c r="N12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="O12" s="2" t="e">
-        <f>COUNTIF(#REF!,N12)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P12" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q12" s="2" t="e">
-        <f>COUNTIF(#REF!,P12)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
-      <c r="N13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="O13" s="2" t="e">
-        <f>COUNTIF(#REF!,N13)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P13" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q13" s="2" t="e">
-        <f>COUNTIF(#REF!,P13)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
-      <c r="N14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O14" s="2" t="e">
-        <f>COUNTIF(#REF!,N14)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P14" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q14" s="2" t="e">
-        <f>COUNTIF(#REF!,P14)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="M15" s="2"/>
-      <c r="N15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="O15" s="2" t="e">
-        <f>COUNTIF(#REF!,N15)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P15" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q15" s="2" t="e">
-        <f>COUNTIF(#REF!,P15)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="M16" s="2"/>
-      <c r="N16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="O16" s="2" t="e">
-        <f>COUNTIF(#REF!,N16)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P16" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q16" s="2" t="e">
-        <f>COUNTIF(#REF!,P16)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
     </row>
     <row r="17" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M17" s="2"/>
-      <c r="N17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="O17" s="2" t="e">
-        <f>COUNTIF(#REF!,N17)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P17" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q17" s="2" t="e">
-        <f>COUNTIF(#REF!,P17)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
     </row>
     <row r="18" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M18" s="2"/>
-      <c r="N18" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="O18" s="2" t="e">
-        <f>COUNTIF(#REF!,N18)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P18" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q18" s="2" t="e">
-        <f>COUNTIF(#REF!,P18)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
     </row>
     <row r="19" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M19" s="2"/>
-      <c r="N19" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="O19" s="2" t="e">
-        <f>COUNTIF(#REF!,N19)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P19" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q19" s="2" t="e">
-        <f>COUNTIF(#REF!,P19)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
     </row>
     <row r="20" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M20" s="2"/>
-      <c r="N20" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O20" s="2" t="e">
-        <f>COUNTIF(#REF!,N20)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P20" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q20" s="2" t="e">
-        <f>COUNTIF(#REF!,P20)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
     </row>
     <row r="21" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M21" s="2"/>
-      <c r="N21" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O21" s="2" t="e">
-        <f>COUNTIF(#REF!,N21)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P21" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q21" s="2" t="e">
-        <f>COUNTIF(#REF!,P21)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
     </row>
     <row r="22" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M22" s="2"/>
-      <c r="N22" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="O22" s="2" t="e">
-        <f>COUNTIF(#REF!,N22)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P22" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q22" s="2" t="e">
-        <f>COUNTIF(#REF!,P22)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
     </row>
     <row r="23" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M23" s="2"/>
-      <c r="N23" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="O23" s="2" t="e">
-        <f>COUNTIF(#REF!,N23)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P23" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q23" s="2" t="e">
-        <f>COUNTIF(#REF!,P23)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
     </row>
     <row r="24" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M24" s="2"/>
-      <c r="N24" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="O24" s="2" t="e">
-        <f>COUNTIF(#REF!,N24)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P24" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q24" s="2" t="e">
-        <f>COUNTIF(#REF!,P24)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
     </row>
     <row r="25" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M25" s="2"/>
-      <c r="N25" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="O25" s="2" t="e">
-        <f>COUNTIF(#REF!,N25)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P25" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q25" s="2" t="e">
-        <f>COUNTIF(#REF!,P25)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
     </row>
     <row r="26" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M26" s="2"/>
-      <c r="N26" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O26" s="2" t="e">
-        <f>COUNTIF(#REF!,N26)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P26" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q26" s="2" t="e">
-        <f>COUNTIF(#REF!,P26)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
     </row>
     <row r="27" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M27" s="2"/>
-      <c r="N27" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="O27" s="2" t="e">
-        <f>COUNTIF(#REF!,N27)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P27" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q27" s="2" t="e">
-        <f>COUNTIF(#REF!,P27)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
     </row>
     <row r="28" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M28" s="2"/>
-      <c r="N28" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="O28" s="2" t="e">
-        <f>COUNTIF(#REF!,N28)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P28" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q28" s="2" t="e">
-        <f>COUNTIF(#REF!,P28)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
     </row>
     <row r="29" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M29" s="2"/>
-      <c r="N29" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="O29" s="2" t="e">
-        <f>COUNTIF(#REF!,N29)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P29" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q29" s="2" t="e">
-        <f>COUNTIF(#REF!,P29)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
     </row>
     <row r="30" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M30" s="2"/>
-      <c r="N30" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="O30" s="2" t="e">
-        <f>COUNTIF(#REF!,N30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P30" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q30" s="2" t="e">
-        <f>COUNTIF(#REF!,P30)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
     </row>
     <row r="31" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="N31" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="O31" s="2" t="e">
-        <f>COUNTIF(#REF!,N31)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P31" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q31" s="2" t="e">
-        <f>COUNTIF(#REF!,P31)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
     </row>
     <row r="32" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="N32" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O32" s="2" t="e">
-        <f>COUNTIF(#REF!,N32)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P32" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q32" s="2" t="e">
-        <f>COUNTIF(#REF!,P32)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
     </row>
     <row r="33" spans="14:17" x14ac:dyDescent="0.25">
-      <c r="N33" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O33" s="2" t="e">
-        <f>COUNTIF(#REF!,N33)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P33" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q33" s="2" t="e">
-        <f>COUNTIF(#REF!,P33)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
     </row>
     <row r="34" spans="14:17" x14ac:dyDescent="0.25">
       <c r="O34" s="2"/>
@@ -7352,7 +6237,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/MarchMadness2019.xlsx
+++ b/MarchMadness2019.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rmadsen\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prosk\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5490FF28-2272-4FDC-9D27-340B992AA28E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11160" windowHeight="8295" tabRatio="687"/>
+    <workbookView xWindow="3675" yWindow="3675" windowWidth="21600" windowHeight="11385" tabRatio="687" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Round 1" sheetId="1" r:id="rId1"/>
@@ -18,9 +19,10 @@
     <sheet name="Elite 8" sheetId="6" r:id="rId4"/>
     <sheet name="Final Four" sheetId="7" r:id="rId5"/>
     <sheet name="Champion" sheetId="8" r:id="rId6"/>
-    <sheet name="Teams" sheetId="3" state="hidden" r:id="rId7"/>
+    <sheet name="Summary" sheetId="9" r:id="rId7"/>
+    <sheet name="Teams" sheetId="3" state="hidden" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="76">
   <si>
     <t>Randall</t>
   </si>
@@ -269,7 +271,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -681,10 +683,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -2782,7 +2784,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3965,11 +3967,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:S34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4030,42 +4032,45 @@
     <row r="2" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>IF(B2="","",IF(B2=N2,P2,N2))</f>
-        <v/>
+        <v>Virginia Tech</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="2">
         <f>IF(C2=B2,4,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E2" t="s">
         <v>1</v>
       </c>
       <c r="F2" s="2">
         <f>IF(E2=B2,4,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G2" t="s">
         <v>1</v>
       </c>
       <c r="H2" s="2">
         <f>IF(G2=B2,4,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I2" t="s">
         <v>1</v>
       </c>
       <c r="J2" s="2">
         <f>IF(I2=B2,4,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K2" t="s">
         <v>1</v>
       </c>
       <c r="L2" s="2">
         <f>IF(K2=B2,4,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2" t="s">
@@ -4086,21 +4091,24 @@
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f t="shared" ref="A3:A9" si="0">IF(B3="","",IF(B3=N3,P3,N3))</f>
-        <v/>
+        <v>LSU</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="2">
         <f t="shared" ref="D3:D9" si="1">IF(C3=B3,4,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
       </c>
       <c r="F3" s="2">
         <f t="shared" ref="F3:F9" si="2">IF(E3=B3,4,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G3" t="s">
         <v>6</v>
@@ -4114,14 +4122,14 @@
       </c>
       <c r="J3" s="2">
         <f t="shared" ref="J3:J9" si="4">IF(I3=B3,4,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K3" t="s">
         <v>8</v>
       </c>
       <c r="L3" s="2">
         <f t="shared" ref="L3:L9" si="5">IF(K3=B3,4,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2" t="s">
@@ -4142,21 +4150,24 @@
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>FSU</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
       </c>
       <c r="F4" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G4" t="s">
         <v>12</v>
@@ -4177,7 +4188,7 @@
       </c>
       <c r="L4" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2" t="s">
@@ -4198,7 +4209,10 @@
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Michigan</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>16</v>
@@ -4254,14 +4268,17 @@
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Oregon</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
       </c>
       <c r="C6" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E6" t="s">
         <v>38</v>
@@ -4275,21 +4292,21 @@
       </c>
       <c r="H6" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I6" t="s">
         <v>17</v>
       </c>
       <c r="J6" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K6" t="s">
         <v>17</v>
       </c>
       <c r="L6" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2" t="s">
@@ -4310,7 +4327,10 @@
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Tenn</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
       </c>
       <c r="C7" t="s">
         <v>24</v>
@@ -4366,7 +4386,10 @@
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>NC</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
       </c>
       <c r="C8" t="s">
         <v>25</v>
@@ -4387,7 +4410,7 @@
       </c>
       <c r="H8" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I8" t="s">
         <v>25</v>
@@ -4422,14 +4445,17 @@
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Houston</v>
+      </c>
+      <c r="B9" t="s">
+        <v>32</v>
       </c>
       <c r="C9" t="s">
         <v>32</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E9" t="s">
         <v>30</v>
@@ -4450,14 +4476,14 @@
       </c>
       <c r="J9" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K9" t="s">
         <v>32</v>
       </c>
       <c r="L9" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2" t="s">
@@ -4481,24 +4507,24 @@
       </c>
       <c r="C10" s="2">
         <f>SUM(D2:D9)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2">
         <f>SUM(F2:F9)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G10" s="2">
         <f>SUM(H2:H9)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I10" s="2">
         <f>SUM(J2:J9)</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="K10" s="2">
         <f>SUM(L2:L9)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
@@ -4741,10 +4767,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:S34"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4804,7 +4832,10 @@
     <row r="2" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>IF(B2="","",IF(B2=N2,P2,N2))</f>
-        <v/>
+        <v>Duke</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -4832,7 +4863,7 @@
       </c>
       <c r="J2" s="2">
         <f>IF(I2=B2,8,0)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K2" t="s">
         <v>1</v>
@@ -4850,17 +4881,20 @@
         <v>3</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="Q2" s="2">
         <f>COUNTIF(C2:K2,P2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f t="shared" ref="A3:A5" si="0">IF(B3="","",IF(B3=N3,P3,N3))</f>
-        <v/>
+        <v>Gonz</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -4899,14 +4933,14 @@
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="O3" s="2">
         <f t="shared" ref="O3:O5" si="6">COUNTIF(C3:K3,N3)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="Q3" s="2">
         <f t="shared" ref="Q3:Q5" si="7">COUNTIF(C3:K3,P3)</f>
@@ -4916,14 +4950,17 @@
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Purdue</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
       </c>
       <c r="C4" t="s">
         <v>17</v>
       </c>
       <c r="D4" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E4" t="s">
         <v>38</v>
@@ -4944,35 +4981,38 @@
       </c>
       <c r="J4" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K4" t="s">
         <v>17</v>
       </c>
       <c r="L4" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="O4" s="2">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="Q4" s="2">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Kentucky</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>25</v>
@@ -4993,7 +5033,7 @@
       </c>
       <c r="H5" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I5" t="s">
         <v>32</v>
@@ -5011,18 +5051,18 @@
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="O5" s="2">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="Q5" s="2">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
@@ -5031,7 +5071,7 @@
       </c>
       <c r="C6" s="2">
         <f>SUM(D2:D5)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2">
@@ -5040,15 +5080,15 @@
       </c>
       <c r="G6" s="2">
         <f>SUM(H2:H5)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I6" s="2">
         <f>SUM(J2:J5)</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="K6" s="2">
         <f>SUM(L2:L5)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
@@ -5323,10 +5363,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:S34"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5425,18 +5467,16 @@
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="O2" s="2">
         <f>COUNTIF(C2:K2,N2)</f>
-        <v>3</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>58</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="P2" s="2"/>
       <c r="Q2" s="2">
         <f>COUNTIF(C2:K2,P2)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
@@ -5481,14 +5521,14 @@
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="O3" s="2">
         <f t="shared" ref="O3" si="1">COUNTIF(C3:K3,N3)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="Q3" s="2">
         <f t="shared" ref="Q3" si="2">COUNTIF(C3:K3,P3)</f>
@@ -5805,10 +5845,12 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:S34"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6237,7 +6279,73 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93C745E2-D17A-4917-B044-797724325F28}">
+  <dimension ref="C1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="3:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="3:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <f>'Round 1'!C34+'Round 2'!C18+'Sweet 16'!C10+'Elite 8'!C6+'Final Four'!C4+Champion!C3</f>
+        <v>72</v>
+      </c>
+      <c r="D2">
+        <f>'Round 1'!E34+'Round 2'!E18+'Sweet 16'!E10+'Elite 8'!E6+'Final Four'!E4+Champion!E3</f>
+        <v>63</v>
+      </c>
+      <c r="E2">
+        <f>'Round 1'!G34+'Round 2'!G18+'Sweet 16'!G10+'Elite 8'!G6+'Final Four'!G4+Champion!G3</f>
+        <v>71</v>
+      </c>
+      <c r="F2">
+        <f>'Round 1'!I34+'Round 2'!I18+'Sweet 16'!I10+'Elite 8'!I6+'Final Four'!I4+Champion!I3</f>
+        <v>80</v>
+      </c>
+      <c r="G2">
+        <f>'Round 1'!K34+'Round 2'!K18+'Sweet 16'!K10+'Elite 8'!K6+'Final Four'!K4+Champion!K3</f>
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C2:G2">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
